--- a/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002311</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信中证500指数增强A</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002316</t>
+          <t>002311</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信中证500指数增强C</t>
+          <t>创金合信中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004891</t>
+          <t>510560</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华润元大成长精选股票A</t>
+          <t>国寿安保中证500ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004892</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华润元大成长精选股票C</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005607</t>
+          <t>002316</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝中证500指数增强A</t>
+          <t>创金合信中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005608</t>
+          <t>003016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝中证500指数增强C</t>
+          <t>中金中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>88.89</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>510440</t>
+          <t>003578</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成中证500沪市ETF</t>
+          <t>中金中证500指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.40</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006255</t>
+          <t>002730</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数A</t>
+          <t>华富华鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006256</t>
+          <t>004891</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数C</t>
+          <t>华润元大成长精选股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>510560</t>
+          <t>006255</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保中证500ETF</t>
+          <t>中邮中证价值回报量化策略指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>006783</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>红土创新中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006783</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>红土创新中证500指数增强A</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -912,25 +1072,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006784</t>
+          <t>159999</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>红土创新中证500指数增强C</t>
+          <t>永赢中证500ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007089</t>
+          <t>510440</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强C</t>
+          <t>大成中证500沪市ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>005607</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>华宝中证500指数增强A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003016</t>
+          <t>004892</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中金中证500指数增强A</t>
+          <t>华润元大成长精选股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1052,25 +1262,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003578</t>
+          <t>004546</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中金中证500指数增强C</t>
+          <t>建信量化优享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1080,25 +1300,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002730</t>
+          <t>006784</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华富华鑫灵活配置混合A</t>
+          <t>红土创新中证500指数增强C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002731</t>
+          <t>005608</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华富华鑫灵活配置混合C</t>
+          <t>华宝中证500指数增强C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1136,25 +1376,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>159999</t>
+          <t>002731</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>永赢中证500ETF</t>
+          <t>华富华鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004546</t>
+          <t>006256</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
+          <t>中邮中证价值回报量化策略指数C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31.11</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,15 +1478,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006783</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>红土创新中证500指数增强A</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006784</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>红土创新中证500指数增强C</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>006783</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>红土创新中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.19</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>006784</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>红土创新中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1942,4 +1943,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2226,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -2147,7 +2242,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2163,13 +2258,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2321,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -2242,14 +2337,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -2258,7 +2353,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2274,13 +2369,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1683</t>
+          <t>0.1081</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -743,26 +760,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2078</t>
+          <t>0.1683</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +788,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -895,252 +1006,6 @@
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2034</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006783</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006784</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1215,26 +1080,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2386</t>
+          <t>0.2034</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1243,36 +1108,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1281,36 +1146,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006783</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>红土创新中证500指数增强A</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1319,36 +1184,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>006783</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>红土创新中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1367,26 +1232,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1395,6 +1260,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600739-辽宁成大.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,7 +569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>25</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,302 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>161123</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1081</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -760,26 +1043,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1683</t>
+          <t>0.1081</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -854,26 +1137,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2078</t>
+          <t>0.1683</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -882,6 +1165,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1006,252 +1383,6 @@
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2034</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006783</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006784</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1326,26 +1457,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2386</t>
+          <t>0.2034</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1354,36 +1485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1392,36 +1523,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006783</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>红土创新中证500指数增强A</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1430,36 +1561,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>006783</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>红土创新中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1478,26 +1609,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1506,6 +1637,252 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
